--- a/dados_possiveis_usuarios_c_label.xlsx
+++ b/dados_possiveis_usuarios_c_label.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z215"/>
+  <dimension ref="A1:W249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,22 +550,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Cluster</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Usaria o scan?</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Usaria o guia?</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Usaria o aplicativo?</t>
+          <t>Usaria o aplicativo</t>
         </is>
       </c>
     </row>
@@ -666,20 +651,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W2" t="n">
-        <v>3</v>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -738,20 +710,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -842,20 +801,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -950,20 +896,7 @@
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1058,22 +991,9 @@
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
-        <v>4</v>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1130,20 +1050,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1202,20 +1109,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1310,20 +1204,7 @@
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1418,20 +1299,7 @@
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="n">
-        <v>2</v>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1526,20 +1394,7 @@
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="n">
-        <v>2</v>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1630,20 +1485,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1746,20 +1588,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1854,20 +1683,7 @@
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>2</v>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1962,20 +1778,7 @@
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2078,20 +1881,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W16" t="n">
-        <v>3</v>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2150,20 +1940,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2250,20 +2027,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2354,20 +2118,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="n">
-        <v>2</v>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2426,20 +2177,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2542,20 +2280,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W21" t="n">
-        <v>3</v>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2614,20 +2339,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2718,20 +2430,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="n">
-        <v>2</v>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2790,20 +2489,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2862,20 +2548,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2978,24 +2651,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W26" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3050,20 +2706,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3122,20 +2765,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3230,22 +2860,9 @@
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="n">
-        <v>4</v>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3302,20 +2919,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3418,20 +3022,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W31" t="n">
-        <v>3</v>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -3534,20 +3125,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W32" t="n">
-        <v>1</v>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -3650,20 +3228,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W33" t="n">
-        <v>3</v>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -3722,20 +3287,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3826,20 +3378,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="n">
-        <v>2</v>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3934,20 +3473,7 @@
       </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="n">
-        <v>2</v>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4006,20 +3532,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4110,20 +3623,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="n">
-        <v>2</v>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4226,24 +3726,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W39" t="n">
-        <v>4</v>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4330,20 +3813,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="n">
-        <v>2</v>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4402,20 +3872,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4510,20 +3967,7 @@
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="n">
-        <v>2</v>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4618,20 +4062,7 @@
       </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="n">
-        <v>2</v>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4726,20 +4157,7 @@
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="n">
-        <v>2</v>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4842,24 +4260,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W45" t="n">
-        <v>1</v>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4958,20 +4359,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W46" t="n">
-        <v>3</v>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -5030,20 +4418,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5102,20 +4477,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5210,20 +4572,7 @@
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="n">
-        <v>2</v>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5326,24 +4675,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W50" t="n">
-        <v>4</v>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5398,20 +4730,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
+      <c r="W51" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5470,20 +4789,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5586,20 +4892,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W53" t="n">
-        <v>1</v>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
+      <c r="W53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -5690,20 +4983,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="n">
-        <v>2</v>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
+      <c r="W54" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5798,20 +5078,7 @@
       </c>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="n">
-        <v>2</v>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
+      <c r="W55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5870,20 +5137,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
+      <c r="W56" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5986,20 +5240,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W57" t="n">
-        <v>3</v>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
+      <c r="W57" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -6086,20 +5327,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
+      <c r="W58" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6194,20 +5422,7 @@
       </c>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="n">
-        <v>2</v>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
+      <c r="W59" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6266,20 +5481,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="n">
-        <v>0</v>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
+      <c r="W60" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6382,24 +5584,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W61" t="n">
-        <v>3</v>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6486,20 +5671,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="n">
-        <v>2</v>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6558,20 +5730,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6674,24 +5833,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W64" t="n">
-        <v>4</v>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6746,20 +5888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
+      <c r="W65" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6854,20 +5983,7 @@
       </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="n">
-        <v>2</v>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
+      <c r="W66" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6958,20 +6074,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="n">
-        <v>2</v>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
+      <c r="W67" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7074,24 +6177,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W68" t="n">
-        <v>4</v>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -7182,20 +6268,7 @@
       </c>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
-      <c r="W69" t="n">
-        <v>2</v>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
+      <c r="W69" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7298,24 +6371,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W70" t="n">
-        <v>4</v>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7402,20 +6458,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="n">
-        <v>2</v>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
+      <c r="W71" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7506,20 +6549,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="n">
-        <v>2</v>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
+      <c r="W72" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7578,20 +6608,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z73" t="inlineStr">
+      <c r="W73" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7682,20 +6699,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
-      <c r="W74" t="n">
-        <v>2</v>
-      </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr">
+      <c r="W74" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7790,20 +6794,7 @@
       </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
-      <c r="W75" t="n">
-        <v>2</v>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z75" t="inlineStr">
+      <c r="W75" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7906,20 +6897,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W76" t="n">
-        <v>3</v>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z76" t="inlineStr">
+      <c r="W76" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -8014,20 +6992,7 @@
       </c>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="n">
-        <v>2</v>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr">
+      <c r="W77" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8118,20 +7083,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="n">
-        <v>2</v>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y78" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z78" t="inlineStr">
+      <c r="W78" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8234,24 +7186,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W79" t="n">
-        <v>4</v>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -8306,20 +7241,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="n">
-        <v>0</v>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z80" t="inlineStr">
+      <c r="W80" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8378,20 +7300,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
-      <c r="W81" t="n">
-        <v>0</v>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
+      <c r="W81" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8494,24 +7403,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W82" t="n">
-        <v>4</v>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -8566,20 +7458,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
-      <c r="W83" t="n">
-        <v>0</v>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
+      <c r="W83" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8638,20 +7517,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z84" t="inlineStr">
+      <c r="W84" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8710,20 +7576,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="n">
-        <v>0</v>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
+      <c r="W85" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8826,24 +7679,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W86" t="n">
-        <v>1</v>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8934,20 +7770,7 @@
       </c>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
-      <c r="W87" t="n">
-        <v>2</v>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr">
+      <c r="W87" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9006,20 +7829,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="n">
-        <v>0</v>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr">
+      <c r="W88" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9114,20 +7924,7 @@
       </c>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="n">
-        <v>2</v>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y89" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z89" t="inlineStr">
+      <c r="W89" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9222,20 +8019,7 @@
       </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="n">
-        <v>2</v>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y90" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z90" t="inlineStr">
+      <c r="W90" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9326,20 +8110,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
-      <c r="W91" t="n">
-        <v>2</v>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y91" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr">
+      <c r="W91" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9430,20 +8201,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
-      <c r="W92" t="n">
-        <v>2</v>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z92" t="inlineStr">
+      <c r="W92" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9546,20 +8304,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W93" t="n">
-        <v>3</v>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr">
+      <c r="W93" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -9662,20 +8407,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W94" t="n">
-        <v>1</v>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z94" t="inlineStr">
+      <c r="W94" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -9766,20 +8498,7 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
-      <c r="W95" t="n">
-        <v>2</v>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y95" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z95" t="inlineStr">
+      <c r="W95" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9874,20 +8593,7 @@
       </c>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
-      <c r="W96" t="n">
-        <v>2</v>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z96" t="inlineStr">
+      <c r="W96" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9978,20 +8684,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="n">
-        <v>2</v>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z97" t="inlineStr">
+      <c r="W97" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10050,20 +8743,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
-      <c r="W98" t="n">
-        <v>0</v>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z98" t="inlineStr">
+      <c r="W98" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10166,24 +8846,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W99" t="n">
-        <v>4</v>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y99" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -10282,20 +8945,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W100" t="n">
-        <v>1</v>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y100" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z100" t="inlineStr">
+      <c r="W100" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10390,20 +9040,7 @@
       </c>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="n">
-        <v>2</v>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z101" t="inlineStr">
+      <c r="W101" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10506,24 +9143,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W102" t="n">
-        <v>4</v>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y102" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -10578,20 +9198,7 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
-      <c r="W103" t="n">
-        <v>0</v>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z103" t="inlineStr">
+      <c r="W103" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10686,20 +9293,7 @@
       </c>
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
-      <c r="W104" t="n">
-        <v>2</v>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z104" t="inlineStr">
+      <c r="W104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10790,20 +9384,7 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
-      <c r="W105" t="n">
-        <v>2</v>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y105" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z105" t="inlineStr">
+      <c r="W105" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10894,20 +9475,7 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
-      <c r="W106" t="n">
-        <v>2</v>
-      </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y106" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z106" t="inlineStr">
+      <c r="W106" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10998,20 +9566,7 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
-      <c r="W107" t="n">
-        <v>2</v>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y107" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z107" t="inlineStr">
+      <c r="W107" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11114,20 +9669,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W108" t="n">
-        <v>3</v>
-      </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y108" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z108" t="inlineStr">
+      <c r="W108" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11222,20 +9764,7 @@
       </c>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
-      <c r="W109" t="n">
-        <v>2</v>
-      </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y109" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z109" t="inlineStr">
+      <c r="W109" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11338,20 +9867,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W110" t="n">
-        <v>1</v>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y110" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z110" t="inlineStr">
+      <c r="W110" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11410,20 +9926,7 @@
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
-      <c r="W111" t="n">
-        <v>0</v>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y111" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z111" t="inlineStr">
+      <c r="W111" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11518,20 +10021,7 @@
       </c>
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
-      <c r="W112" t="n">
-        <v>2</v>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y112" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z112" t="inlineStr">
+      <c r="W112" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11590,20 +10080,7 @@
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr"/>
-      <c r="W113" t="n">
-        <v>0</v>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y113" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z113" t="inlineStr">
+      <c r="W113" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11698,20 +10175,7 @@
       </c>
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
-      <c r="W114" t="n">
-        <v>2</v>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y114" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z114" t="inlineStr">
+      <c r="W114" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11814,24 +10278,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W115" t="n">
-        <v>4</v>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y115" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z115" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -11930,24 +10377,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W116" t="n">
-        <v>4</v>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y116" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z116" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -12002,20 +10432,7 @@
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
-      <c r="W117" t="n">
-        <v>0</v>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y117" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z117" t="inlineStr">
+      <c r="W117" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12118,20 +10535,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W118" t="n">
-        <v>1</v>
-      </c>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y118" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z118" t="inlineStr">
+      <c r="W118" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12190,20 +10594,7 @@
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
-      <c r="W119" t="n">
-        <v>0</v>
-      </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y119" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z119" t="inlineStr">
+      <c r="W119" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12262,20 +10653,7 @@
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr"/>
-      <c r="W120" t="n">
-        <v>0</v>
-      </c>
-      <c r="X120" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y120" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z120" t="inlineStr">
+      <c r="W120" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12370,20 +10748,7 @@
       </c>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
-      <c r="W121" t="n">
-        <v>2</v>
-      </c>
-      <c r="X121" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y121" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z121" t="inlineStr">
+      <c r="W121" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12478,20 +10843,7 @@
       </c>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
-      <c r="W122" t="n">
-        <v>2</v>
-      </c>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y122" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z122" t="inlineStr">
+      <c r="W122" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12594,20 +10946,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W123" t="n">
-        <v>3</v>
-      </c>
-      <c r="X123" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y123" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z123" t="inlineStr">
+      <c r="W123" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12666,20 +11005,7 @@
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr"/>
-      <c r="W124" t="n">
-        <v>0</v>
-      </c>
-      <c r="X124" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y124" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z124" t="inlineStr">
+      <c r="W124" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12774,20 +11100,7 @@
       </c>
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr"/>
-      <c r="W125" t="n">
-        <v>2</v>
-      </c>
-      <c r="X125" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y125" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z125" t="inlineStr">
+      <c r="W125" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12882,20 +11195,7 @@
       </c>
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr"/>
-      <c r="W126" t="n">
-        <v>2</v>
-      </c>
-      <c r="X126" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y126" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z126" t="inlineStr">
+      <c r="W126" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12986,20 +11286,7 @@
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr"/>
-      <c r="W127" t="n">
-        <v>2</v>
-      </c>
-      <c r="X127" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y127" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z127" t="inlineStr">
+      <c r="W127" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13058,20 +11345,7 @@
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr"/>
-      <c r="W128" t="n">
-        <v>0</v>
-      </c>
-      <c r="X128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z128" t="inlineStr">
+      <c r="W128" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13174,20 +11448,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W129" t="n">
-        <v>3</v>
-      </c>
-      <c r="X129" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y129" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z129" t="inlineStr">
+      <c r="W129" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13278,20 +11539,7 @@
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr"/>
-      <c r="W130" t="n">
-        <v>2</v>
-      </c>
-      <c r="X130" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y130" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z130" t="inlineStr">
+      <c r="W130" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13382,20 +11630,7 @@
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr"/>
-      <c r="W131" t="n">
-        <v>2</v>
-      </c>
-      <c r="X131" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y131" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z131" t="inlineStr">
+      <c r="W131" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13490,20 +11725,7 @@
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
-      <c r="W132" t="n">
-        <v>2</v>
-      </c>
-      <c r="X132" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y132" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z132" t="inlineStr">
+      <c r="W132" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13562,20 +11784,7 @@
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
-      <c r="W133" t="n">
-        <v>0</v>
-      </c>
-      <c r="X133" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y133" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z133" t="inlineStr">
+      <c r="W133" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13678,20 +11887,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W134" t="n">
-        <v>3</v>
-      </c>
-      <c r="X134" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y134" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z134" t="inlineStr">
+      <c r="W134" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13782,20 +11978,7 @@
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr"/>
-      <c r="W135" t="n">
-        <v>2</v>
-      </c>
-      <c r="X135" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y135" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z135" t="inlineStr">
+      <c r="W135" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13898,24 +12081,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W136" t="n">
-        <v>4</v>
-      </c>
-      <c r="X136" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y136" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z136" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -14002,20 +12168,7 @@
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr"/>
-      <c r="W137" t="n">
-        <v>2</v>
-      </c>
-      <c r="X137" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y137" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z137" t="inlineStr">
+      <c r="W137" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14074,20 +12227,7 @@
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr"/>
-      <c r="W138" t="n">
-        <v>0</v>
-      </c>
-      <c r="X138" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y138" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z138" t="inlineStr">
+      <c r="W138" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14146,20 +12286,7 @@
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr"/>
-      <c r="W139" t="n">
-        <v>0</v>
-      </c>
-      <c r="X139" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y139" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z139" t="inlineStr">
+      <c r="W139" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14250,20 +12377,7 @@
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
-      <c r="W140" t="n">
-        <v>2</v>
-      </c>
-      <c r="X140" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y140" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z140" t="inlineStr">
+      <c r="W140" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14366,20 +12480,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W141" t="n">
-        <v>1</v>
-      </c>
-      <c r="X141" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y141" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z141" t="inlineStr">
+      <c r="W141" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14482,24 +12583,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W142" t="n">
-        <v>4</v>
-      </c>
-      <c r="X142" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y142" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z142" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -14598,24 +12682,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W143" t="n">
-        <v>4</v>
-      </c>
-      <c r="X143" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y143" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z143" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -14714,20 +12781,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W144" t="n">
-        <v>3</v>
-      </c>
-      <c r="X144" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y144" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z144" t="inlineStr">
+      <c r="W144" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14786,20 +12840,7 @@
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
-      <c r="W145" t="n">
-        <v>0</v>
-      </c>
-      <c r="X145" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y145" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z145" t="inlineStr">
+      <c r="W145" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14858,20 +12899,7 @@
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr"/>
-      <c r="W146" t="n">
-        <v>0</v>
-      </c>
-      <c r="X146" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y146" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z146" t="inlineStr">
+      <c r="W146" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14930,20 +12958,7 @@
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr"/>
-      <c r="W147" t="n">
-        <v>0</v>
-      </c>
-      <c r="X147" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y147" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z147" t="inlineStr">
+      <c r="W147" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15034,20 +13049,7 @@
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr"/>
-      <c r="W148" t="n">
-        <v>2</v>
-      </c>
-      <c r="X148" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y148" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z148" t="inlineStr">
+      <c r="W148" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15106,20 +13108,7 @@
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
-      <c r="W149" t="n">
-        <v>0</v>
-      </c>
-      <c r="X149" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y149" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z149" t="inlineStr">
+      <c r="W149" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15210,20 +13199,7 @@
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
-      <c r="W150" t="n">
-        <v>2</v>
-      </c>
-      <c r="X150" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y150" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z150" t="inlineStr">
+      <c r="W150" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15326,20 +13302,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W151" t="n">
-        <v>3</v>
-      </c>
-      <c r="X151" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y151" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z151" t="inlineStr">
+      <c r="W151" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15442,20 +13405,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W152" t="n">
-        <v>3</v>
-      </c>
-      <c r="X152" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y152" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z152" t="inlineStr">
+      <c r="W152" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15558,24 +13508,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W153" t="n">
-        <v>3</v>
-      </c>
-      <c r="X153" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y153" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z153" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -15630,20 +13563,7 @@
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr"/>
-      <c r="W154" t="n">
-        <v>0</v>
-      </c>
-      <c r="X154" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y154" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z154" t="inlineStr">
+      <c r="W154" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15746,24 +13666,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W155" t="n">
-        <v>1</v>
-      </c>
-      <c r="X155" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y155" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z155" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -15862,24 +13765,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W156" t="n">
-        <v>1</v>
-      </c>
-      <c r="X156" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y156" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z156" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -15934,20 +13820,7 @@
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
-      <c r="W157" t="n">
-        <v>0</v>
-      </c>
-      <c r="X157" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y157" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z157" t="inlineStr">
+      <c r="W157" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16050,24 +13923,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W158" t="n">
-        <v>4</v>
-      </c>
-      <c r="X158" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y158" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z158" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -16166,20 +14022,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W159" t="n">
-        <v>1</v>
-      </c>
-      <c r="X159" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y159" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z159" t="inlineStr">
+      <c r="W159" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16238,20 +14081,7 @@
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr"/>
-      <c r="W160" t="n">
-        <v>0</v>
-      </c>
-      <c r="X160" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y160" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z160" t="inlineStr">
+      <c r="W160" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16342,20 +14172,7 @@
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr"/>
-      <c r="W161" t="n">
-        <v>2</v>
-      </c>
-      <c r="X161" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y161" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z161" t="inlineStr">
+      <c r="W161" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16414,20 +14231,7 @@
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr"/>
-      <c r="W162" t="n">
-        <v>0</v>
-      </c>
-      <c r="X162" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y162" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z162" t="inlineStr">
+      <c r="W162" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16486,20 +14290,7 @@
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr"/>
-      <c r="W163" t="n">
-        <v>0</v>
-      </c>
-      <c r="X163" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y163" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z163" t="inlineStr">
+      <c r="W163" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16602,24 +14393,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W164" t="n">
-        <v>4</v>
-      </c>
-      <c r="X164" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y164" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z164" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -16674,20 +14448,7 @@
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr"/>
-      <c r="W165" t="n">
-        <v>0</v>
-      </c>
-      <c r="X165" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y165" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z165" t="inlineStr">
+      <c r="W165" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16790,24 +14551,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W166" t="n">
-        <v>4</v>
-      </c>
-      <c r="X166" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y166" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z166" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -16894,20 +14638,7 @@
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr"/>
-      <c r="W167" t="n">
-        <v>2</v>
-      </c>
-      <c r="X167" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y167" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z167" t="inlineStr">
+      <c r="W167" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17010,20 +14741,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W168" t="n">
-        <v>1</v>
-      </c>
-      <c r="X168" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y168" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z168" t="inlineStr">
+      <c r="W168" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17082,20 +14800,7 @@
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr"/>
-      <c r="W169" t="n">
-        <v>0</v>
-      </c>
-      <c r="X169" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y169" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z169" t="inlineStr">
+      <c r="W169" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17198,20 +14903,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W170" t="n">
-        <v>1</v>
-      </c>
-      <c r="X170" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y170" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z170" t="inlineStr">
+      <c r="W170" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17314,24 +15006,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W171" t="n">
-        <v>4</v>
-      </c>
-      <c r="X171" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y171" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z171" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -17418,20 +15093,7 @@
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr"/>
-      <c r="W172" t="n">
-        <v>2</v>
-      </c>
-      <c r="X172" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y172" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z172" t="inlineStr">
+      <c r="W172" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17534,20 +15196,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W173" t="n">
-        <v>1</v>
-      </c>
-      <c r="X173" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y173" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z173" t="inlineStr">
+      <c r="W173" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17642,20 +15291,7 @@
       </c>
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr"/>
-      <c r="W174" t="n">
-        <v>2</v>
-      </c>
-      <c r="X174" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y174" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z174" t="inlineStr">
+      <c r="W174" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17742,20 +15378,7 @@
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr"/>
-      <c r="W175" t="n">
-        <v>2</v>
-      </c>
-      <c r="X175" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y175" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z175" t="inlineStr">
+      <c r="W175" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17814,20 +15437,7 @@
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr"/>
-      <c r="W176" t="n">
-        <v>0</v>
-      </c>
-      <c r="X176" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y176" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z176" t="inlineStr">
+      <c r="W176" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17922,20 +15532,7 @@
       </c>
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr"/>
-      <c r="W177" t="n">
-        <v>2</v>
-      </c>
-      <c r="X177" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y177" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z177" t="inlineStr">
+      <c r="W177" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18030,20 +15627,7 @@
       </c>
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr"/>
-      <c r="W178" t="n">
-        <v>2</v>
-      </c>
-      <c r="X178" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y178" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z178" t="inlineStr">
+      <c r="W178" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18146,24 +15730,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W179" t="n">
-        <v>1</v>
-      </c>
-      <c r="X179" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y179" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z179" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -18262,24 +15829,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W180" t="n">
-        <v>4</v>
-      </c>
-      <c r="X180" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y180" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z180" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -18370,20 +15920,7 @@
       </c>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
-      <c r="W181" t="n">
-        <v>2</v>
-      </c>
-      <c r="X181" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y181" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z181" t="inlineStr">
+      <c r="W181" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18486,24 +16023,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W182" t="n">
-        <v>4</v>
-      </c>
-      <c r="X182" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y182" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z182" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -18602,24 +16122,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W183" t="n">
-        <v>4</v>
-      </c>
-      <c r="X183" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y183" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z183" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -18718,24 +16221,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W184" t="n">
-        <v>4</v>
-      </c>
-      <c r="X184" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y184" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z184" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -18834,24 +16320,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W185" t="n">
-        <v>4</v>
-      </c>
-      <c r="X185" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y185" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z185" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -18950,20 +16419,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W186" t="n">
-        <v>1</v>
-      </c>
-      <c r="X186" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y186" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z186" t="inlineStr">
+      <c r="W186" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -19058,20 +16514,7 @@
       </c>
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr"/>
-      <c r="W187" t="n">
-        <v>2</v>
-      </c>
-      <c r="X187" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y187" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z187" t="inlineStr">
+      <c r="W187" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -19130,20 +16573,7 @@
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr"/>
-      <c r="W188" t="n">
-        <v>0</v>
-      </c>
-      <c r="X188" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y188" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z188" t="inlineStr">
+      <c r="W188" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -19246,20 +16676,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W189" t="n">
-        <v>1</v>
-      </c>
-      <c r="X189" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y189" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z189" t="inlineStr">
+      <c r="W189" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -19362,24 +16779,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W190" t="n">
-        <v>4</v>
-      </c>
-      <c r="X190" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y190" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z190" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -19434,20 +16834,7 @@
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr"/>
-      <c r="W191" t="n">
-        <v>0</v>
-      </c>
-      <c r="X191" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y191" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z191" t="inlineStr">
+      <c r="W191" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -19506,20 +16893,7 @@
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr"/>
-      <c r="W192" t="n">
-        <v>0</v>
-      </c>
-      <c r="X192" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y192" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z192" t="inlineStr">
+      <c r="W192" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -19610,20 +16984,7 @@
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr"/>
-      <c r="W193" t="n">
-        <v>2</v>
-      </c>
-      <c r="X193" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y193" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z193" t="inlineStr">
+      <c r="W193" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -19714,20 +17075,7 @@
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr"/>
-      <c r="W194" t="n">
-        <v>2</v>
-      </c>
-      <c r="X194" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y194" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z194" t="inlineStr">
+      <c r="W194" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -19786,20 +17134,7 @@
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr"/>
-      <c r="W195" t="n">
-        <v>0</v>
-      </c>
-      <c r="X195" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y195" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z195" t="inlineStr">
+      <c r="W195" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -19902,24 +17237,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W196" t="n">
-        <v>4</v>
-      </c>
-      <c r="X196" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y196" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z196" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -20018,24 +17336,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W197" t="n">
-        <v>4</v>
-      </c>
-      <c r="X197" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y197" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z197" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -20134,20 +17435,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W198" t="n">
-        <v>1</v>
-      </c>
-      <c r="X198" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y198" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z198" t="inlineStr">
+      <c r="W198" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -20242,20 +17530,7 @@
       </c>
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr"/>
-      <c r="W199" t="n">
-        <v>2</v>
-      </c>
-      <c r="X199" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y199" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z199" t="inlineStr">
+      <c r="W199" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -20314,20 +17589,7 @@
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr"/>
-      <c r="W200" t="n">
-        <v>0</v>
-      </c>
-      <c r="X200" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y200" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z200" t="inlineStr">
+      <c r="W200" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -20430,24 +17692,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W201" t="n">
-        <v>4</v>
-      </c>
-      <c r="X201" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y201" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z201" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -20530,20 +17775,7 @@
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr"/>
-      <c r="W202" t="n">
-        <v>2</v>
-      </c>
-      <c r="X202" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y202" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z202" t="inlineStr">
+      <c r="W202" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -20602,20 +17834,7 @@
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr"/>
-      <c r="W203" t="n">
-        <v>0</v>
-      </c>
-      <c r="X203" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y203" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z203" t="inlineStr">
+      <c r="W203" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -20706,20 +17925,7 @@
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr"/>
-      <c r="W204" t="n">
-        <v>2</v>
-      </c>
-      <c r="X204" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y204" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z204" t="inlineStr">
+      <c r="W204" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -20822,24 +18028,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W205" t="n">
-        <v>1</v>
-      </c>
-      <c r="X205" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y205" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z205" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -20938,24 +18127,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W206" t="n">
-        <v>3</v>
-      </c>
-      <c r="X206" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y206" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z206" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -21054,24 +18226,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W207" t="n">
-        <v>4</v>
-      </c>
-      <c r="X207" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y207" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z207" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -21158,20 +18313,7 @@
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr"/>
-      <c r="W208" t="n">
-        <v>2</v>
-      </c>
-      <c r="X208" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y208" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z208" t="inlineStr">
+      <c r="W208" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -21266,20 +18408,7 @@
       </c>
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="inlineStr"/>
-      <c r="W209" t="n">
-        <v>2</v>
-      </c>
-      <c r="X209" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y209" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z209" t="inlineStr">
+      <c r="W209" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -21382,20 +18511,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W210" t="n">
-        <v>1</v>
-      </c>
-      <c r="X210" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y210" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z210" t="inlineStr">
+      <c r="W210" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -21498,24 +18614,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W211" t="n">
-        <v>4</v>
-      </c>
-      <c r="X211" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y211" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z211" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -21570,20 +18669,7 @@
       <c r="T212" t="inlineStr"/>
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr"/>
-      <c r="W212" t="n">
-        <v>0</v>
-      </c>
-      <c r="X212" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y212" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z212" t="inlineStr">
+      <c r="W212" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -21686,24 +18772,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W213" t="n">
-        <v>4</v>
-      </c>
-      <c r="X213" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Y213" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Z213" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="W213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -21790,20 +18859,7 @@
       <c r="T214" t="inlineStr"/>
       <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr"/>
-      <c r="W214" t="n">
-        <v>2</v>
-      </c>
-      <c r="X214" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y214" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z214" t="inlineStr">
+      <c r="W214" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -21894,20 +18950,3069 @@
       <c r="T215" t="inlineStr"/>
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr"/>
-      <c r="W215" t="n">
-        <v>2</v>
-      </c>
-      <c r="X215" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Y215" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Z215" t="inlineStr">
+      <c r="W215" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>45525.03280092592</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>45525.03480324074</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>Com um guia do próprio museu.</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Não, apenas me conformo</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>45525.20909722222</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>45525.21011574074</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Ensino superior incompleto/não iniciado</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>Não me interesso</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>45525.25905092592</v>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>45525.26184027778</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>45525.28440972222</v>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>45525.2849074074</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>Não me interesso</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>45525.28853009259</v>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>45525.29041666666</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Entre 25 e 35 anos</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Ensino superior incompleto/não iniciado</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>De 5 a 9 anos</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Fotografia</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Não, acredito que o que tem no museu é o suficiente</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>45525.31649305556</v>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>45525.31792824074</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Classes D/E: até R$ 2,9 mil</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>Estou iniciando agora</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Arquitetura e Urbanismo</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Nunca</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>Com um guia do próprio museu.</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Não, apenas me conformo</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>45525.31165509259</v>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>45525.3266087963</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Menos de 18 anos</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Cursando ensino médio</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>45525.35819444444</v>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>45525.35950231482</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Entre 18 e 24 anos</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Cursando ensino médio</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>De 5 a 9 anos</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>Com um guia do próprio museu.</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Não, acredito que o que tem no museu é o suficiente</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>45525.38394675926</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>45525.38431712963</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Entre 36 e 45 anos</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>Não me interesso</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>45525.39981481482</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>45525.4018287037</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Ensino superior incompleto/não iniciado</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Arquitetura e Urbanismo</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>Utilizo o planejamento de terceiros (sites, blogs, páginas em redes sociais que disponibilizam).</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Não, apenas me conformo</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>45525.41003472222</v>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>45525.41241898148</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Fotografia</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Inspiração</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>Redes sociais</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>45525.41797453703</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>45525.42633101852</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>60+ anos</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>Com um guia do próprio museu.</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Inspiração</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Não, acredito que o que tem no museu é o suficiente</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>45525.43372685185</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>45525.43461805556</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Ensino superior incompleto/não iniciado</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>Nunca</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>Com um guia do próprio museu.</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Não visito</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>45525.43557870371</v>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>45525.43730324074</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Entre 25 e 35 anos</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Classe A: superior a R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>De 5 a 9 anos</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>45525.4658912037</v>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>45525.46751157408</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Entre 36 e 45 anos</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>Estou iniciando agora</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>Fotografia</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>Com um guia do próprio museu.</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>45525.54574074074</v>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>45525.54605324074</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Entre 18 e 24 anos</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Cursando ensino superior</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>Não me interesso</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>45525.58699074074</v>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>45525.58835648148</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Entre 25 e 35 anos</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>Arquitetura e Urbanismo</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>45525.67877314815</v>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>45525.68018518519</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Entre 25 e 35 anos</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Estou iniciando agora</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Fotografia</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Não, apenas me conformo</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>45525.74659722222</v>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>45525.74938657408</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Classe A: superior a R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Inspiração</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W234" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>45525.75177083333</v>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>45525.75481481481</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Classe A: superior a R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Fotografia</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>Utilizo o planejamento de terceiros (sites, blogs, páginas em redes sociais que disponibilizam).</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Não, acredito que o que tem no museu é o suficiente</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>45525.77050925926</v>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>45525.77137731481</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Entre 25 e 35 anos</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Inspiração</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>45525.77052083334</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>45525.77137731481</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Entre 25 e 35 anos</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Inspiração</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>45525.77115740741</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>45525.77255787037</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Classe A: superior a R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>De 5 a 9 anos</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Arquitetura e Urbanismo</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>Com um guia do próprio museu.</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>Redes sociais</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>45525.77262731481</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>45525.77443287037</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Entre 25 e 35 anos</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Arte digital</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Frequentemente (máximo cinco vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>Utilizo o planejamento de terceiros (sites, blogs, páginas em redes sociais que disponibilizam).</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Inspiração</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>45525.79944444444</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>45525.80081018519</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Entre 25 e 35 anos</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>Menos de 2 anos</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Fotografia</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>Utilizo o planejamento de terceiros (sites, blogs, páginas em redes sociais que disponibilizam).</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Não, acredito que o que tem no museu é o suficiente</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr"/>
+      <c r="V240" t="inlineStr"/>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>45525.87846064815</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>45525.87957175926</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Entre 25 e 35 anos</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>Fotografia</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>45526.61461805556</v>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>45526.61541666667</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Menos de 18 anos</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Cursando ensino médio</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Classes D/E: até R$ 2,9 mil</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Não me interesso</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
+      <c r="R242" t="inlineStr"/>
+      <c r="S242" t="inlineStr"/>
+      <c r="T242" t="inlineStr"/>
+      <c r="U242" t="inlineStr"/>
+      <c r="V242" t="inlineStr"/>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>45527.44355324074</v>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>45527.44586805555</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>60+ anos</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>Não me interesso</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="inlineStr"/>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
+      <c r="R243" t="inlineStr"/>
+      <c r="S243" t="inlineStr"/>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>45527.45621527778</v>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>45527.45777777778</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Entre 46 e 59 anos</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>Fotografia</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>45528.978125</v>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>45528.98164351852</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>60+ anos</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>Há mais de 10 anos</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>Ocasionalmente (máximo três vezes ao ano)</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Inspiração</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Não, acredito que o que tem no museu é o suficiente</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>45531.40065972223</v>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>45531.40304398148</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Entre 25 e 35 anos</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Estou iniciando agora</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Aprendizado</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Não, acredito que o que tem no museu é o suficiente</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>45534.31252314815</v>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>45534.31398148148</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Menos de 18 anos</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Cursando ensino médio</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>Estou iniciando agora</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Fotografia</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Inspiração</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Sim, procuro</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>Busca em navegadores (Google, Yahoo, Edge, Opera, Fox, entre outros)</t>
+        </is>
+      </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>45536.4894212963</v>
+      </c>
+      <c r="C248" s="2" t="n">
+        <v>45536.49136574074</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Entre 36 e 45 anos</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Ensino superior concluído</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Classe B: entre R$ 7,1 mil e R$ 22 mil</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>Menos de 2 anos</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Arte digital</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Sim, sinto falta de mais informações</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Não, apenas me conformo</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr"/>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>45540.47650462963</v>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>45540.47758101852</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Menos de 18 anos</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Cursando ensino fundamental</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Classe C: entre R$ 2,9 mil e R$ 7,1 mil</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>De 5 a 9 anos</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Pintura</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Raramente (uma vez ao ano)</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>Sem um guia/planejamento para ver as obras.</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Não, acredito que o que tem no museu é o suficiente</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr">
         <is>
           <t>Não</t>
         </is>

--- a/dados_possiveis_usuarios_c_label.xlsx
+++ b/dados_possiveis_usuarios_c_label.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Usaria o aplicativo</t>
+          <t>Usaria o aplicativo?</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3024,7 +3028,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3131,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3234,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3730,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4260,7 +4268,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4361,7 +4373,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4687,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4894,7 +4910,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -5242,7 +5258,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5600,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5833,7 +5853,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W64" t="inlineStr"/>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6177,7 +6201,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6371,7 +6399,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W70" t="inlineStr"/>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6899,7 +6931,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -7186,7 +7218,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7403,7 +7439,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W82" t="inlineStr"/>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7679,7 +7719,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W86" t="inlineStr"/>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8306,7 +8350,7 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8453,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -8846,7 +8890,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W99" t="inlineStr"/>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -8947,7 +8995,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9191,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W102" t="inlineStr"/>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -9671,7 +9723,7 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -9869,7 +9921,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -10278,7 +10330,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W115" t="inlineStr"/>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -10377,7 +10433,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W116" t="inlineStr"/>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -10537,7 +10597,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -10948,7 +11008,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -11450,7 +11510,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11949,7 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12141,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W136" t="inlineStr"/>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -12482,7 +12546,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -12583,7 +12647,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W142" t="inlineStr"/>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -12682,7 +12750,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W143" t="inlineStr"/>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -12783,7 +12855,7 @@
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -13304,7 +13376,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -13407,7 +13479,7 @@
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -13508,7 +13580,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W153" t="inlineStr"/>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -13666,7 +13742,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W155" t="inlineStr"/>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -13765,7 +13845,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W156" t="inlineStr"/>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -13923,7 +14007,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W158" t="inlineStr"/>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -14024,7 +14112,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14481,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W164" t="inlineStr"/>
+      <c r="W164" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -14551,7 +14643,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W166" t="inlineStr"/>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -14743,7 +14839,7 @@
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -14905,7 +15001,7 @@
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -15006,7 +15102,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W171" t="inlineStr"/>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -15198,7 +15298,7 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15830,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W179" t="inlineStr"/>
+      <c r="W179" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -15829,7 +15933,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W180" t="inlineStr"/>
+      <c r="W180" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -16023,7 +16131,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W182" t="inlineStr"/>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -16122,7 +16234,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W183" t="inlineStr"/>
+      <c r="W183" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -16221,7 +16337,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W184" t="inlineStr"/>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -16320,7 +16440,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W185" t="inlineStr"/>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -16421,7 +16545,7 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -16678,7 +16802,7 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -16779,7 +16903,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W190" t="inlineStr"/>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -17237,7 +17365,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W196" t="inlineStr"/>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -17336,7 +17468,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -17437,7 +17573,7 @@
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -17692,7 +17828,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W201" t="inlineStr"/>
+      <c r="W201" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -18028,7 +18168,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W205" t="inlineStr"/>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -18127,7 +18271,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="W206" t="inlineStr"/>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -18226,7 +18374,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W207" t="inlineStr"/>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -18513,7 +18665,7 @@
       </c>
       <c r="W210" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -18614,7 +18766,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W211" t="inlineStr"/>
+      <c r="W211" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -18772,7 +18928,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W213" t="inlineStr"/>
+      <c r="W213" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -19209,7 +19369,7 @@
       </c>
       <c r="W218" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -19555,7 +19715,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W222" t="inlineStr"/>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -19899,7 +20063,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W226" t="inlineStr"/>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -20176,7 +20344,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W229" t="inlineStr"/>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -20275,7 +20447,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W230" t="inlineStr"/>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -20435,7 +20611,7 @@
       </c>
       <c r="W232" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -20633,7 +20809,7 @@
       </c>
       <c r="W234" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -20827,7 +21003,7 @@
       </c>
       <c r="W236" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -20930,7 +21106,7 @@
       </c>
       <c r="W237" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -21031,7 +21207,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W238" t="inlineStr"/>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -21130,7 +21310,11 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="W239" t="inlineStr"/>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -21322,7 +21506,7 @@
       </c>
       <c r="W241" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -21543,7 +21727,7 @@
       </c>
       <c r="W244" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -21828,7 +22012,7 @@
       </c>
       <c r="W247" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>

--- a/dados_possiveis_usuarios_c_label.xlsx
+++ b/dados_possiveis_usuarios_c_label.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -11008,7 +11008,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -11510,7 +11510,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12546,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -14112,7 +14112,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -14839,7 +14839,7 @@
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -16802,7 +16802,7 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -17573,7 +17573,7 @@
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -18665,7 +18665,7 @@
       </c>
       <c r="W210" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -19369,7 +19369,7 @@
       </c>
       <c r="W218" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -20611,7 +20611,7 @@
       </c>
       <c r="W232" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="W234" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -21003,7 +21003,7 @@
       </c>
       <c r="W236" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -21106,7 +21106,7 @@
       </c>
       <c r="W237" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -21506,7 +21506,7 @@
       </c>
       <c r="W241" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -21727,7 +21727,7 @@
       </c>
       <c r="W244" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -22012,7 +22012,7 @@
       </c>
       <c r="W247" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>

--- a/dados_possiveis_usuarios_c_label.xlsx
+++ b/dados_possiveis_usuarios_c_label.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
